--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.424050619024585</v>
+        <v>-1.291906760184714</v>
       </c>
       <c r="D2">
-        <v>0.1546176349724382</v>
+        <v>0.2097967734461148</v>
       </c>
       <c r="E2">
         <v>0.5475673647852658</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.4006665465423998</v>
+        <v>-0.3840945598667236</v>
       </c>
       <c r="D3">
-        <v>0.6887166208309337</v>
+        <v>0.7045956771925179</v>
       </c>
       <c r="E3">
         <v>0.5475673647852658</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.2163440798181542</v>
+        <v>-0.2355416140551202</v>
       </c>
       <c r="D4">
-        <v>0.8287458328862405</v>
+        <v>0.815967180459285</v>
       </c>
       <c r="E4">
         <v>0.5475673647852658</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.6069063502698044</v>
+        <v>0.633835692680039</v>
       </c>
       <c r="D5">
-        <v>0.5439951206838844</v>
+        <v>0.5327233818121218</v>
       </c>
       <c r="E5">
         <v>0.5475673647852658</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.9849987134845952</v>
+        <v>0.9163325101137673</v>
       </c>
       <c r="D6">
-        <v>0.3247666201405401</v>
+        <v>0.3694285275095535</v>
       </c>
       <c r="E6">
         <v>0.5724741199268008</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.001913699083096</v>
+        <v>1.019615285723138</v>
       </c>
       <c r="D7">
-        <v>0.3165296456883884</v>
+        <v>0.3189932889144209</v>
       </c>
       <c r="E7">
         <v>0.5724741199268008</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.07592939851473</v>
+        <v>2.02940847891387</v>
       </c>
       <c r="D8">
-        <v>0.03805235234991811</v>
+        <v>0.05468546139969566</v>
       </c>
       <c r="E8">
         <v>0.5724741199268008</v>
@@ -609,7 +606,7 @@
         <v>0.5388352682408912</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.1008765259935401</v>
+        <v>0.1029233583603398</v>
       </c>
       <c r="D9">
-        <v>0.9196605216777902</v>
+        <v>0.918956230535966</v>
       </c>
       <c r="E9">
         <v>0.5530469062087251</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.918076033672611</v>
+        <v>0.7138602539101656</v>
       </c>
       <c r="D10">
-        <v>0.3587109216021043</v>
+        <v>0.4828190257826499</v>
       </c>
       <c r="E10">
         <v>0.5530469062087251</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.689602198599624</v>
+        <v>0.594423221530923</v>
       </c>
       <c r="D11">
-        <v>0.4905396791753107</v>
+        <v>0.5582932427371594</v>
       </c>
       <c r="E11">
         <v>0.5512547149519507</v>
